--- a/Config/基础配置/GenClassConfig.xlsx
+++ b/Config/基础配置/GenClassConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>默认值</t>
   </si>
   <si>
-    <t>Config</t>
+    <t>Cnf</t>
   </si>
   <si>
     <t>ItemInfo</t>
@@ -1041,8 +1041,8 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1149,12 +1149,13 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Config/基础配置/GenClassConfig.xlsx
+++ b/Config/基础配置/GenClassConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>##</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>物品数量</t>
+  </si>
+  <si>
+    <t>AnimInfo</t>
+  </si>
+  <si>
+    <t>动画信息</t>
+  </si>
+  <si>
+    <t>animName</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>动画名</t>
+  </si>
+  <si>
+    <t>animCnt</t>
+  </si>
+  <si>
+    <t>动画播放次数</t>
   </si>
   <si>
     <t>TestInfo</t>
@@ -1039,13 +1060,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
@@ -1054,7 +1075,9 @@
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="22.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1132,6 +1155,40 @@
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9">
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
